--- a/Code/Results/Cases/Case_5_83/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_83/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.10762791054011</v>
+        <v>13.91848542527777</v>
       </c>
       <c r="C2">
-        <v>15.39307290267115</v>
+        <v>9.06726736778916</v>
       </c>
       <c r="D2">
-        <v>6.484897729506521</v>
+        <v>9.49910687641092</v>
       </c>
       <c r="E2">
-        <v>8.483495127775836</v>
+        <v>13.62590144479427</v>
       </c>
       <c r="F2">
-        <v>20.63100747963221</v>
+        <v>30.47522122678951</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>11.67826831046571</v>
+        <v>20.48835151856355</v>
       </c>
       <c r="J2">
-        <v>5.595333829481718</v>
+        <v>9.908396315228909</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.3664788390475</v>
+        <v>16.68047667615853</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.39486057354121</v>
+        <v>22.71193674786809</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.73178837533206</v>
+        <v>13.29949308189612</v>
       </c>
       <c r="C3">
-        <v>14.40642530655453</v>
+        <v>8.548197509756124</v>
       </c>
       <c r="D3">
-        <v>6.293522590188159</v>
+        <v>9.480893187953713</v>
       </c>
       <c r="E3">
-        <v>8.396529238988462</v>
+        <v>13.64908886173658</v>
       </c>
       <c r="F3">
-        <v>20.36512932788141</v>
+        <v>30.57476240681883</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>12.02503334919013</v>
+        <v>20.63619880020492</v>
       </c>
       <c r="J3">
-        <v>5.65288941516032</v>
+        <v>9.939428663107822</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.5123654201892</v>
+        <v>16.47699412924694</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.37986439532432</v>
+        <v>22.81734876917929</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.83762007680246</v>
+        <v>12.90461363996673</v>
       </c>
       <c r="C4">
-        <v>13.76580952780013</v>
+        <v>8.212467703286782</v>
       </c>
       <c r="D4">
-        <v>6.175363906082812</v>
+        <v>9.470867186236822</v>
       </c>
       <c r="E4">
-        <v>8.347922978583377</v>
+        <v>13.66559862730254</v>
       </c>
       <c r="F4">
-        <v>20.22630293053594</v>
+        <v>30.64500426764777</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>12.25049273344589</v>
+        <v>20.7322061525001</v>
       </c>
       <c r="J4">
-        <v>5.690810849049164</v>
+        <v>9.959712905702959</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.96520743361214</v>
+        <v>16.35258396588177</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.39006493803003</v>
+        <v>22.88849551488509</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.46077975801719</v>
+        <v>12.74017034032927</v>
       </c>
       <c r="C5">
-        <v>13.49599074522656</v>
+        <v>8.071460690999071</v>
       </c>
       <c r="D5">
-        <v>6.127111988036911</v>
+        <v>9.467075182654048</v>
       </c>
       <c r="E5">
-        <v>8.329309307687312</v>
+        <v>13.67289778988153</v>
       </c>
       <c r="F5">
-        <v>20.17572613446634</v>
+        <v>30.67591310906776</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>12.3453752493178</v>
+        <v>20.77264501360665</v>
       </c>
       <c r="J5">
-        <v>5.706898877238135</v>
+        <v>9.968288673560151</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.7366981612881</v>
+        <v>16.30206831379335</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.39887613355939</v>
+        <v>22.91909751714355</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.39745226896815</v>
+        <v>12.71265802541993</v>
       </c>
       <c r="C6">
-        <v>13.45065824724325</v>
+        <v>8.047796123265611</v>
       </c>
       <c r="D6">
-        <v>6.119095594227504</v>
+        <v>9.466463334914305</v>
       </c>
       <c r="E6">
-        <v>8.326290252613418</v>
+        <v>13.67414430885822</v>
       </c>
       <c r="F6">
-        <v>20.16768534036257</v>
+        <v>30.68118320475525</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>12.36130803804154</v>
+        <v>20.77943929512415</v>
       </c>
       <c r="J6">
-        <v>5.709608214876105</v>
+        <v>9.969731395240194</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.69842587968868</v>
+        <v>16.293692693327</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.40061363801718</v>
+        <v>22.92427596427829</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.83258836802495</v>
+        <v>12.90240989596112</v>
       </c>
       <c r="C7">
-        <v>13.76220614144472</v>
+        <v>8.210582889769672</v>
       </c>
       <c r="D7">
-        <v>6.174713487790015</v>
+        <v>9.4708148534817</v>
       </c>
       <c r="E7">
-        <v>8.347667130897753</v>
+        <v>13.66569475347215</v>
       </c>
       <c r="F7">
-        <v>20.22559676545724</v>
+        <v>30.64541187721252</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>12.25176036162197</v>
+        <v>20.73274619990976</v>
       </c>
       <c r="J7">
-        <v>5.691025266178712</v>
+        <v>9.959827306688378</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.96214783644469</v>
+        <v>16.35190188996009</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.3901652256794</v>
+        <v>22.88890171702106</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.64346484151272</v>
+        <v>13.70824246506747</v>
       </c>
       <c r="C8">
-        <v>15.06009262611127</v>
+        <v>8.891869731625343</v>
       </c>
       <c r="D8">
-        <v>6.419083787639567</v>
+        <v>9.492588254213544</v>
       </c>
       <c r="E8">
-        <v>8.452508996635613</v>
+        <v>13.63342471333376</v>
       </c>
       <c r="F8">
-        <v>20.53418323353973</v>
+        <v>30.50764403209482</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>11.79513311815646</v>
+        <v>20.53824426593476</v>
       </c>
       <c r="J8">
-        <v>5.614633976443955</v>
+        <v>9.91884117964929</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.07679223590251</v>
+        <v>16.6102358359103</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.38552760304027</v>
+        <v>22.746946024501</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.80484965580056</v>
+        <v>15.16355617424834</v>
       </c>
       <c r="C9">
-        <v>17.3300119090473</v>
+        <v>10.08996448237641</v>
       </c>
       <c r="D9">
-        <v>6.890562799188437</v>
+        <v>9.544344730787367</v>
       </c>
       <c r="E9">
-        <v>8.69650494495629</v>
+        <v>13.58818032652269</v>
       </c>
       <c r="F9">
-        <v>21.33841472618659</v>
+        <v>30.31026547139848</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>11.00717716680599</v>
+        <v>20.1982978903377</v>
       </c>
       <c r="J9">
-        <v>5.486033706063116</v>
+        <v>9.848210174333383</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.19470694723809</v>
+        <v>17.11885226324939</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.54014863932298</v>
+        <v>22.51980530862384</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.89354518034722</v>
+        <v>16.14844179053479</v>
       </c>
       <c r="C10">
-        <v>18.83190847153394</v>
+        <v>10.88326654994811</v>
       </c>
       <c r="D10">
-        <v>7.229195292423308</v>
+        <v>9.587717946248484</v>
       </c>
       <c r="E10">
-        <v>8.899587245500486</v>
+        <v>13.56593848627251</v>
       </c>
       <c r="F10">
-        <v>22.05630995669635</v>
+        <v>30.21012615203088</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>10.5071289511921</v>
+        <v>19.97380191811743</v>
       </c>
       <c r="J10">
-        <v>5.405567359587373</v>
+        <v>9.802230790703756</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.6989264728775</v>
+        <v>17.49087948684359</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.7661005421402</v>
+        <v>22.38451855140878</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.79385241403367</v>
+        <v>16.57686778749531</v>
       </c>
       <c r="C11">
-        <v>19.47972297084387</v>
+        <v>11.22489590935825</v>
       </c>
       <c r="D11">
-        <v>7.381024548312134</v>
+        <v>9.608570010276935</v>
       </c>
       <c r="E11">
-        <v>8.997204102061795</v>
+        <v>13.55820732634693</v>
       </c>
       <c r="F11">
-        <v>22.41128127183229</v>
+        <v>30.17440855321476</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>10.30049379355351</v>
+        <v>19.87715656289781</v>
       </c>
       <c r="J11">
-        <v>5.372276431424381</v>
+        <v>9.782592147088483</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.34816154264232</v>
+        <v>17.65916527553288</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.89571808759709</v>
+        <v>22.32990817964427</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.12768707702752</v>
+        <v>16.73619600131218</v>
       </c>
       <c r="C12">
-        <v>19.7199949550429</v>
+        <v>11.35147220747709</v>
       </c>
       <c r="D12">
-        <v>7.438162094154214</v>
+        <v>9.616623646565301</v>
       </c>
       <c r="E12">
-        <v>9.034924603698858</v>
+        <v>13.55562265720545</v>
       </c>
       <c r="F12">
-        <v>22.54982563736464</v>
+        <v>30.16230423725439</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>10.22562176135278</v>
+        <v>19.84134766103158</v>
       </c>
       <c r="J12">
-        <v>5.360171956035415</v>
+        <v>9.775338837415477</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.58903051505381</v>
+        <v>17.72270502882535</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.9488385306825</v>
+        <v>22.31023149954695</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.05610396119548</v>
+        <v>16.70201238164888</v>
       </c>
       <c r="C13">
-        <v>19.66847144481639</v>
+        <v>11.32433618867902</v>
       </c>
       <c r="D13">
-        <v>7.42587292293862</v>
+        <v>9.61488221377763</v>
       </c>
       <c r="E13">
-        <v>9.026767196698101</v>
+        <v>13.55616406432191</v>
       </c>
       <c r="F13">
-        <v>22.51980365368654</v>
+        <v>30.16484781302303</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>10.24158995226055</v>
+        <v>19.84902466271053</v>
       </c>
       <c r="J13">
-        <v>5.362756108174612</v>
+        <v>9.776892814530848</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.53737570492004</v>
+        <v>17.7090296732528</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.93721585623258</v>
+        <v>22.31442451476311</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.82145887341498</v>
+        <v>16.59003453921532</v>
       </c>
       <c r="C14">
-        <v>19.49959102157548</v>
+        <v>11.2353654718625</v>
       </c>
       <c r="D14">
-        <v>7.385732640192805</v>
+        <v>9.60922945556602</v>
       </c>
       <c r="E14">
-        <v>9.000292243112321</v>
+        <v>13.55798781264544</v>
       </c>
       <c r="F14">
-        <v>22.42259654375682</v>
+        <v>30.17338420593047</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>10.29426397551947</v>
+        <v>19.8741947337051</v>
       </c>
       <c r="J14">
-        <v>5.371270371446117</v>
+        <v>9.781991738644802</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.36807748785794</v>
+        <v>17.66439674499695</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.90000645874531</v>
+        <v>22.32826922893291</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.67681073270794</v>
+        <v>16.52106387158319</v>
       </c>
       <c r="C15">
-        <v>19.39549193383911</v>
+        <v>11.18050423790627</v>
       </c>
       <c r="D15">
-        <v>7.361098041500326</v>
+        <v>9.605787360972094</v>
       </c>
       <c r="E15">
-        <v>8.984173978695518</v>
+        <v>13.55914956420701</v>
       </c>
       <c r="F15">
-        <v>22.36359253510225</v>
+        <v>30.17879825653217</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>10.32698029818129</v>
+        <v>19.88971485134637</v>
       </c>
       <c r="J15">
-        <v>5.376551789143892</v>
+        <v>9.785138854634472</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.26373036985308</v>
+        <v>17.63703205963801</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.87774542539552</v>
+        <v>22.33688032932677</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.83371126153934</v>
+        <v>16.12004076985626</v>
       </c>
       <c r="C16">
-        <v>18.7888639674097</v>
+        <v>10.86055079218009</v>
       </c>
       <c r="D16">
-        <v>7.219224902374704</v>
+        <v>9.586377455139667</v>
       </c>
       <c r="E16">
-        <v>8.893313292092401</v>
+        <v>13.56649174377907</v>
       </c>
       <c r="F16">
-        <v>22.03368693216392</v>
+        <v>30.21265890430947</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>10.52108349521781</v>
+        <v>19.98022822950711</v>
       </c>
       <c r="J16">
-        <v>5.407811811133095</v>
+        <v>9.803539905143102</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.65579704046255</v>
+        <v>17.47985820052694</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.7581852708117</v>
+        <v>22.38822749869318</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.30378164972428</v>
+        <v>15.86893742706939</v>
       </c>
       <c r="C17">
-        <v>18.40768295460541</v>
+        <v>10.65932102884788</v>
       </c>
       <c r="D17">
-        <v>7.13159371649433</v>
+        <v>9.574754636227658</v>
       </c>
       <c r="E17">
-        <v>8.83891559051281</v>
+        <v>13.57160708994676</v>
       </c>
       <c r="F17">
-        <v>21.8386066508162</v>
+        <v>30.23595564852592</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>10.64574873582858</v>
+        <v>20.03715902889067</v>
       </c>
       <c r="J17">
-        <v>5.427854976770651</v>
+        <v>9.815155363474529</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.27391338843795</v>
+        <v>17.38315776848809</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.69184306539334</v>
+        <v>22.4215073245241</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.99428304343009</v>
+        <v>15.72266852319938</v>
       </c>
       <c r="C18">
-        <v>18.18510181653741</v>
+        <v>10.54176824124071</v>
       </c>
       <c r="D18">
-        <v>7.080983890500242</v>
+        <v>9.568175287156018</v>
       </c>
       <c r="E18">
-        <v>8.808119983302225</v>
+        <v>13.57477397778693</v>
       </c>
       <c r="F18">
-        <v>21.72907295324635</v>
+        <v>30.25028080320441</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>10.71938826417946</v>
+        <v>20.07041977551414</v>
       </c>
       <c r="J18">
-        <v>5.439693498425689</v>
+        <v>9.821956539827131</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.05096199702653</v>
+        <v>17.3274515936261</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.65620048369753</v>
+        <v>22.44130113319978</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.88868316269377</v>
+        <v>15.672831150856</v>
       </c>
       <c r="C19">
-        <v>18.10916528794909</v>
+        <v>10.50165671539994</v>
       </c>
       <c r="D19">
-        <v>7.063814029796187</v>
+        <v>9.565965916297657</v>
       </c>
       <c r="E19">
-        <v>8.797777626771987</v>
+        <v>13.57588482607789</v>
       </c>
       <c r="F19">
-        <v>21.69244408709658</v>
+        <v>30.25528978974956</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>10.7446431306967</v>
+        <v>20.08176983749171</v>
       </c>
       <c r="J19">
-        <v>5.443754358606985</v>
+        <v>9.824279967397089</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.97490571273891</v>
+        <v>17.30857709222536</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.6445588942262</v>
+        <v>22.44811478875485</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.36067915856802</v>
+        <v>15.89585902090507</v>
       </c>
       <c r="C20">
-        <v>18.44860523194477</v>
+        <v>10.68092987761982</v>
       </c>
       <c r="D20">
-        <v>7.140943891415443</v>
+        <v>9.575980983690348</v>
       </c>
       <c r="E20">
-        <v>8.844655326441835</v>
+        <v>13.57103930103277</v>
       </c>
       <c r="F20">
-        <v>21.8590964758226</v>
+        <v>30.23337983508189</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>10.63227504117483</v>
+        <v>20.03104527473478</v>
       </c>
       <c r="J20">
-        <v>5.425689062949775</v>
+        <v>9.813906432610432</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.31490690535955</v>
+        <v>17.39346102556126</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.69864359722409</v>
+        <v>22.4178970912444</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.890571667202</v>
+        <v>16.62300468485925</v>
       </c>
       <c r="C21">
-        <v>19.54933169031895</v>
+        <v>11.26157423952499</v>
       </c>
       <c r="D21">
-        <v>7.397532776933118</v>
+        <v>9.610885566947019</v>
       </c>
       <c r="E21">
-        <v>9.008048066097789</v>
+        <v>13.55744282851757</v>
       </c>
       <c r="F21">
-        <v>22.4510364189226</v>
+        <v>30.17083824078546</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>10.27869738739412</v>
+        <v>19.86678026498458</v>
       </c>
       <c r="J21">
-        <v>5.368755683840027</v>
+        <v>9.780489085456384</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.41793921919276</v>
+        <v>17.67751196631071</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.91082484535784</v>
+        <v>22.32417542852971</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.84914563773257</v>
+        <v>17.08125866131071</v>
       </c>
       <c r="C22">
-        <v>20.23936239226639</v>
+        <v>11.62478229008992</v>
       </c>
       <c r="D22">
-        <v>7.563134411250479</v>
+        <v>9.634613356514279</v>
       </c>
       <c r="E22">
-        <v>9.119237207171498</v>
+        <v>13.55055554384585</v>
       </c>
       <c r="F22">
-        <v>22.86195616814824</v>
+        <v>30.13824987805317</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>10.06751303003501</v>
+        <v>19.76402056382528</v>
       </c>
       <c r="J22">
-        <v>5.334486553840898</v>
+        <v>9.759717887474208</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.10982389566219</v>
+        <v>17.8620470224884</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.07310103097553</v>
+        <v>22.2687724119452</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.34128893145706</v>
+        <v>16.83825889104379</v>
       </c>
       <c r="C23">
-        <v>19.87374835888063</v>
+        <v>11.43242679329312</v>
       </c>
       <c r="D23">
-        <v>7.474952475112054</v>
+        <v>9.621866918084473</v>
       </c>
       <c r="E23">
-        <v>9.059489832908959</v>
+        <v>13.55404864169849</v>
       </c>
       <c r="F23">
-        <v>22.64042874686811</v>
+        <v>30.15488269889427</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>10.17826413512382</v>
+        <v>19.8184444515915</v>
       </c>
       <c r="J23">
-        <v>5.352498520931682</v>
+        <v>9.770706152753609</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.74318652025741</v>
+        <v>17.76367467475558</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.98427630096286</v>
+        <v>22.29780479713162</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.33497086052239</v>
+        <v>15.88369369901614</v>
       </c>
       <c r="C24">
-        <v>18.43011497364005</v>
+        <v>10.67116631848267</v>
       </c>
       <c r="D24">
-        <v>7.136717389180925</v>
+        <v>9.575426231624785</v>
       </c>
       <c r="E24">
-        <v>8.842058902043382</v>
+        <v>13.57129529439343</v>
       </c>
       <c r="F24">
-        <v>21.84982486668598</v>
+        <v>30.23454145912108</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>10.63836039714998</v>
+        <v>20.03380765060982</v>
       </c>
       <c r="J24">
-        <v>5.426667291972618</v>
+        <v>9.814470690172163</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.29638433517617</v>
+        <v>17.38880326749969</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.69556130844931</v>
+        <v>22.41952721981622</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.99098723548379</v>
+        <v>14.78415811793451</v>
       </c>
       <c r="C25">
-        <v>16.7452279955858</v>
+        <v>9.780953717132737</v>
       </c>
       <c r="D25">
-        <v>6.764177629799343</v>
+        <v>9.529390753914813</v>
       </c>
       <c r="E25">
-        <v>8.626337451649045</v>
+        <v>13.59848840861686</v>
       </c>
       <c r="F25">
-        <v>21.09886832908199</v>
+        <v>30.35581501023125</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>11.20759615723283</v>
+        <v>20.2858250569555</v>
       </c>
       <c r="J25">
-        <v>5.518447378584822</v>
+        <v>9.866277451939652</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.60934177156422</v>
+        <v>16.98134152761174</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.47945487960454</v>
+        <v>22.57573033383662</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_83/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_83/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.91848542527777</v>
+        <v>21.10762791054009</v>
       </c>
       <c r="C2">
-        <v>9.06726736778916</v>
+        <v>15.39307290267107</v>
       </c>
       <c r="D2">
-        <v>9.49910687641092</v>
+        <v>6.484897729506467</v>
       </c>
       <c r="E2">
-        <v>13.62590144479427</v>
+        <v>8.483495127775834</v>
       </c>
       <c r="F2">
-        <v>30.47522122678951</v>
+        <v>20.63100747963227</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>20.48835151856355</v>
+        <v>11.67826831046575</v>
       </c>
       <c r="J2">
-        <v>9.908396315228909</v>
+        <v>5.59533382948175</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.68047667615853</v>
+        <v>15.3664788390475</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.71193674786809</v>
+        <v>14.39486057354128</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.29949308189612</v>
+        <v>19.73178837533205</v>
       </c>
       <c r="C3">
-        <v>8.548197509756124</v>
+        <v>14.40642530655439</v>
       </c>
       <c r="D3">
-        <v>9.480893187953713</v>
+        <v>6.293522590188108</v>
       </c>
       <c r="E3">
-        <v>13.64908886173658</v>
+        <v>8.396529238988418</v>
       </c>
       <c r="F3">
-        <v>30.57476240681883</v>
+        <v>20.36512932788151</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>20.63619880020492</v>
+        <v>12.02503334919022</v>
       </c>
       <c r="J3">
-        <v>9.939428663107822</v>
+        <v>5.652889415160322</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.47699412924694</v>
+        <v>14.51236542018918</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.81734876917929</v>
+        <v>14.37986439532445</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.90461363996673</v>
+        <v>18.83762007680246</v>
       </c>
       <c r="C4">
-        <v>8.212467703286782</v>
+        <v>13.7658095278001</v>
       </c>
       <c r="D4">
-        <v>9.470867186236822</v>
+        <v>6.175363906082772</v>
       </c>
       <c r="E4">
-        <v>13.66559862730254</v>
+        <v>8.347922978583341</v>
       </c>
       <c r="F4">
-        <v>30.64500426764777</v>
+        <v>20.22630293053586</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>20.7322061525001</v>
+        <v>12.25049273344586</v>
       </c>
       <c r="J4">
-        <v>9.959712905702959</v>
+        <v>5.690810849049165</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.35258396588177</v>
+        <v>13.96520743361215</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.88849551488509</v>
+        <v>14.39006493803001</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.74017034032927</v>
+        <v>18.46077975801728</v>
       </c>
       <c r="C5">
-        <v>8.071460690999071</v>
+        <v>13.49599074522646</v>
       </c>
       <c r="D5">
-        <v>9.467075182654048</v>
+        <v>6.12711198803696</v>
       </c>
       <c r="E5">
-        <v>13.67289778988153</v>
+        <v>8.329309307687307</v>
       </c>
       <c r="F5">
-        <v>30.67591310906776</v>
+        <v>20.17572613446615</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>20.77264501360665</v>
+        <v>12.34537524931757</v>
       </c>
       <c r="J5">
-        <v>9.968288673560151</v>
+        <v>5.706898877238138</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.30206831379335</v>
+        <v>13.73669816128807</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.91909751714355</v>
+        <v>14.3988761335592</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.71265802541993</v>
+        <v>18.39745226896819</v>
       </c>
       <c r="C6">
-        <v>8.047796123265611</v>
+        <v>13.45065824724317</v>
       </c>
       <c r="D6">
-        <v>9.466463334914305</v>
+        <v>6.119095594227416</v>
       </c>
       <c r="E6">
-        <v>13.67414430885822</v>
+        <v>8.326290252613369</v>
       </c>
       <c r="F6">
-        <v>30.68118320475525</v>
+        <v>20.16768534036241</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>20.77943929512415</v>
+        <v>12.36130803804146</v>
       </c>
       <c r="J6">
-        <v>9.969731395240194</v>
+        <v>5.709608214876106</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.293692693327</v>
+        <v>13.69842587968866</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.92427596427829</v>
+        <v>14.4006136380171</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.90240989596112</v>
+        <v>18.83258836802489</v>
       </c>
       <c r="C7">
-        <v>8.210582889769672</v>
+        <v>13.76220614144466</v>
       </c>
       <c r="D7">
-        <v>9.4708148534817</v>
+        <v>6.174713487790013</v>
       </c>
       <c r="E7">
-        <v>13.66569475347215</v>
+        <v>8.347667130897799</v>
       </c>
       <c r="F7">
-        <v>30.64541187721252</v>
+        <v>20.22559676545747</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>20.73274619990976</v>
+        <v>12.25176036162209</v>
       </c>
       <c r="J7">
-        <v>9.959827306688378</v>
+        <v>5.691025266178781</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.35190188996009</v>
+        <v>13.96214783644473</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.88890171702106</v>
+        <v>14.39016522567956</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.70824246506747</v>
+        <v>20.64346484151269</v>
       </c>
       <c r="C8">
-        <v>8.891869731625343</v>
+        <v>15.06009262611121</v>
       </c>
       <c r="D8">
-        <v>9.492588254213544</v>
+        <v>6.419083787639517</v>
       </c>
       <c r="E8">
-        <v>13.63342471333376</v>
+        <v>8.452508996635665</v>
       </c>
       <c r="F8">
-        <v>30.50764403209482</v>
+        <v>20.53418323353983</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>20.53824426593476</v>
+        <v>11.79513311815653</v>
       </c>
       <c r="J8">
-        <v>9.91884117964929</v>
+        <v>5.614633976444015</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.6102358359103</v>
+        <v>15.07679223590253</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.746946024501</v>
+        <v>14.38552760304036</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.16355617424834</v>
+        <v>23.80484965580055</v>
       </c>
       <c r="C9">
-        <v>10.08996448237641</v>
+        <v>17.33001190904729</v>
       </c>
       <c r="D9">
-        <v>9.544344730787367</v>
+        <v>6.890562799188399</v>
       </c>
       <c r="E9">
-        <v>13.58818032652269</v>
+        <v>8.696504944956294</v>
       </c>
       <c r="F9">
-        <v>30.31026547139848</v>
+        <v>21.33841472618666</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>20.1982978903377</v>
+        <v>11.0071771668061</v>
       </c>
       <c r="J9">
-        <v>9.848210174333383</v>
+        <v>5.486033706063123</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.11885226324939</v>
+        <v>17.1947069472381</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.51980530862384</v>
+        <v>14.54014863932301</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.14844179053479</v>
+        <v>25.89354518034719</v>
       </c>
       <c r="C10">
-        <v>10.88326654994811</v>
+        <v>18.8319084715338</v>
       </c>
       <c r="D10">
-        <v>9.587717946248484</v>
+        <v>7.22919529242339</v>
       </c>
       <c r="E10">
-        <v>13.56593848627251</v>
+        <v>8.899587245500525</v>
       </c>
       <c r="F10">
-        <v>30.21012615203088</v>
+        <v>22.05630995669653</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>19.97380191811743</v>
+        <v>10.5071289511922</v>
       </c>
       <c r="J10">
-        <v>9.802230790703756</v>
+        <v>5.405567359587403</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.49087948684359</v>
+        <v>18.69892647287746</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.38451855140878</v>
+        <v>14.76610054214034</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.57686778749531</v>
+        <v>26.79385241403366</v>
       </c>
       <c r="C11">
-        <v>11.22489590935825</v>
+        <v>19.47972297084374</v>
       </c>
       <c r="D11">
-        <v>9.608570010276935</v>
+        <v>7.381024548312105</v>
       </c>
       <c r="E11">
-        <v>13.55820732634693</v>
+        <v>8.99720410206176</v>
       </c>
       <c r="F11">
-        <v>30.17440855321476</v>
+        <v>22.41128127183237</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>19.87715656289781</v>
+        <v>10.30049379355366</v>
       </c>
       <c r="J11">
-        <v>9.782592147088483</v>
+        <v>5.372276431424383</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.65916527553288</v>
+        <v>19.34816154264231</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.32990817964427</v>
+        <v>14.89571808759719</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.73619600131218</v>
+        <v>27.12768707702746</v>
       </c>
       <c r="C12">
-        <v>11.35147220747709</v>
+        <v>19.71999495504285</v>
       </c>
       <c r="D12">
-        <v>9.616623646565301</v>
+        <v>7.438162094154182</v>
       </c>
       <c r="E12">
-        <v>13.55562265720545</v>
+        <v>9.03492460369892</v>
       </c>
       <c r="F12">
-        <v>30.16230423725439</v>
+        <v>22.54982563736476</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>19.84134766103158</v>
+        <v>10.22562176135286</v>
       </c>
       <c r="J12">
-        <v>9.775338837415477</v>
+        <v>5.360171956035501</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.72270502882535</v>
+        <v>19.58903051505375</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.31023149954695</v>
+        <v>14.94883853068262</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.70201238164888</v>
+        <v>27.05610396119549</v>
       </c>
       <c r="C13">
-        <v>11.32433618867902</v>
+        <v>19.66847144481639</v>
       </c>
       <c r="D13">
-        <v>9.61488221377763</v>
+        <v>7.42587292293863</v>
       </c>
       <c r="E13">
-        <v>13.55616406432191</v>
+        <v>9.026767196698113</v>
       </c>
       <c r="F13">
-        <v>30.16484781302303</v>
+        <v>22.51980365368656</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>19.84902466271053</v>
+        <v>10.24158995226057</v>
       </c>
       <c r="J13">
-        <v>9.776892814530848</v>
+        <v>5.362756108174584</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.7090296732528</v>
+        <v>19.53737570492004</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.31442451476311</v>
+        <v>14.93721585623259</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.59003453921532</v>
+        <v>26.82145887341499</v>
       </c>
       <c r="C14">
-        <v>11.2353654718625</v>
+        <v>19.49959102157536</v>
       </c>
       <c r="D14">
-        <v>9.60922945556602</v>
+        <v>7.385732640192823</v>
       </c>
       <c r="E14">
-        <v>13.55798781264544</v>
+        <v>9.000292243112263</v>
       </c>
       <c r="F14">
-        <v>30.17338420593047</v>
+        <v>22.4225965437569</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>19.8741947337051</v>
+        <v>10.29426397551945</v>
       </c>
       <c r="J14">
-        <v>9.781991738644802</v>
+        <v>5.371270371446043</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.66439674499695</v>
+        <v>19.36807748785796</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.32826922893291</v>
+        <v>14.90000645874535</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.52106387158319</v>
+        <v>26.67681073270791</v>
       </c>
       <c r="C15">
-        <v>11.18050423790627</v>
+        <v>19.39549193383912</v>
       </c>
       <c r="D15">
-        <v>9.605787360972094</v>
+        <v>7.361098041500304</v>
       </c>
       <c r="E15">
-        <v>13.55914956420701</v>
+        <v>8.984173978695544</v>
       </c>
       <c r="F15">
-        <v>30.17879825653217</v>
+        <v>22.36359253510231</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>19.88971485134637</v>
+        <v>10.32698029818137</v>
       </c>
       <c r="J15">
-        <v>9.785138854634472</v>
+        <v>5.376551789143943</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.63703205963801</v>
+        <v>19.26373036985304</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.33688032932677</v>
+        <v>14.87774542539558</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.12004076985626</v>
+        <v>25.83371126153928</v>
       </c>
       <c r="C16">
-        <v>10.86055079218009</v>
+        <v>18.7888639674097</v>
       </c>
       <c r="D16">
-        <v>9.586377455139667</v>
+        <v>7.219224902374663</v>
       </c>
       <c r="E16">
-        <v>13.56649174377907</v>
+        <v>8.893313292092332</v>
       </c>
       <c r="F16">
-        <v>30.21265890430947</v>
+        <v>22.03368693216394</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>19.98022822950711</v>
+        <v>10.52108349521785</v>
       </c>
       <c r="J16">
-        <v>9.803539905143102</v>
+        <v>5.407811811133042</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.47985820052694</v>
+        <v>18.65579704046253</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.38822749869318</v>
+        <v>14.75818527081175</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.86893742706939</v>
+        <v>25.30378164972425</v>
       </c>
       <c r="C17">
-        <v>10.65932102884788</v>
+        <v>18.40768295460534</v>
       </c>
       <c r="D17">
-        <v>9.574754636227658</v>
+        <v>7.13159371649433</v>
       </c>
       <c r="E17">
-        <v>13.57160708994676</v>
+        <v>8.838915590512899</v>
       </c>
       <c r="F17">
-        <v>30.23595564852592</v>
+        <v>21.8386066508163</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>20.03715902889067</v>
+        <v>10.64574873582865</v>
       </c>
       <c r="J17">
-        <v>9.815155363474529</v>
+        <v>5.427854976770715</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.38315776848809</v>
+        <v>18.27391338843792</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.4215073245241</v>
+        <v>14.6918430653934</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.72266852319938</v>
+        <v>24.99428304343011</v>
       </c>
       <c r="C18">
-        <v>10.54176824124071</v>
+        <v>18.18510181653735</v>
       </c>
       <c r="D18">
-        <v>9.568175287156018</v>
+        <v>7.080983890500252</v>
       </c>
       <c r="E18">
-        <v>13.57477397778693</v>
+        <v>8.808119983302264</v>
       </c>
       <c r="F18">
-        <v>30.25028080320441</v>
+        <v>21.7290729532463</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>20.07041977551414</v>
+        <v>10.71938826417939</v>
       </c>
       <c r="J18">
-        <v>9.821956539827131</v>
+        <v>5.439693498425722</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.3274515936261</v>
+        <v>18.05096199702653</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.44130113319978</v>
+        <v>14.6562004836975</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.672831150856</v>
+        <v>24.88868316269377</v>
       </c>
       <c r="C19">
-        <v>10.50165671539994</v>
+        <v>18.10916528794898</v>
       </c>
       <c r="D19">
-        <v>9.565965916297657</v>
+        <v>7.063814029796187</v>
       </c>
       <c r="E19">
-        <v>13.57588482607789</v>
+        <v>8.797777626771987</v>
       </c>
       <c r="F19">
-        <v>30.25528978974956</v>
+        <v>21.69244408709664</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>20.08176983749171</v>
+        <v>10.74464313069674</v>
       </c>
       <c r="J19">
-        <v>9.824279967397089</v>
+        <v>5.443754358606987</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.30857709222536</v>
+        <v>17.97490571273888</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.44811478875485</v>
+        <v>14.64455889422627</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.89585902090507</v>
+        <v>25.360679158568</v>
       </c>
       <c r="C20">
-        <v>10.68092987761982</v>
+        <v>18.44860523194463</v>
       </c>
       <c r="D20">
-        <v>9.575980983690348</v>
+        <v>7.140943891415325</v>
       </c>
       <c r="E20">
-        <v>13.57103930103277</v>
+        <v>8.844655326441799</v>
       </c>
       <c r="F20">
-        <v>30.23337983508189</v>
+        <v>21.85909647582265</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>20.03104527473478</v>
+        <v>10.63227504117487</v>
       </c>
       <c r="J20">
-        <v>9.813906432610432</v>
+        <v>5.425689062949831</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.39346102556126</v>
+        <v>18.31490690535953</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.4178970912444</v>
+        <v>14.69864359722417</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.62300468485925</v>
+        <v>26.89057166720197</v>
       </c>
       <c r="C21">
-        <v>11.26157423952499</v>
+        <v>19.54933169031887</v>
       </c>
       <c r="D21">
-        <v>9.610885566947019</v>
+        <v>7.397532776933079</v>
       </c>
       <c r="E21">
-        <v>13.55744282851757</v>
+        <v>9.008048066097698</v>
       </c>
       <c r="F21">
-        <v>30.17083824078546</v>
+        <v>22.45103641892268</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>19.86678026498458</v>
+        <v>10.27869738739424</v>
       </c>
       <c r="J21">
-        <v>9.780489085456384</v>
+        <v>5.368755683840027</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.67751196631071</v>
+        <v>19.41793921919275</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.32417542852971</v>
+        <v>14.91082484535796</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.08125866131071</v>
+        <v>27.8491456377326</v>
       </c>
       <c r="C22">
-        <v>11.62478229008992</v>
+        <v>20.23936239226639</v>
       </c>
       <c r="D22">
-        <v>9.634613356514279</v>
+        <v>7.563134411250433</v>
       </c>
       <c r="E22">
-        <v>13.55055554384585</v>
+        <v>9.119237207171455</v>
       </c>
       <c r="F22">
-        <v>30.13824987805317</v>
+        <v>22.86195616814828</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>19.76402056382528</v>
+        <v>10.06751303003504</v>
       </c>
       <c r="J22">
-        <v>9.759717887474208</v>
+        <v>5.334486553840841</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.8620470224884</v>
+        <v>20.1098238956622</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.2687724119452</v>
+        <v>15.07310103097557</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.83825889104379</v>
+        <v>27.34128893145704</v>
       </c>
       <c r="C23">
-        <v>11.43242679329312</v>
+        <v>19.87374835888064</v>
       </c>
       <c r="D23">
-        <v>9.621866918084473</v>
+        <v>7.474952475111975</v>
       </c>
       <c r="E23">
-        <v>13.55404864169849</v>
+        <v>9.059489832908925</v>
       </c>
       <c r="F23">
-        <v>30.15488269889427</v>
+        <v>22.64042874686807</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>19.8184444515915</v>
+        <v>10.17826413512376</v>
       </c>
       <c r="J23">
-        <v>9.770706152753609</v>
+        <v>5.352498520931683</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.76367467475558</v>
+        <v>19.74318652025741</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.29780479713162</v>
+        <v>14.98427630096284</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.88369369901614</v>
+        <v>25.3349708605224</v>
       </c>
       <c r="C24">
-        <v>10.67116631848267</v>
+        <v>18.43011497364012</v>
       </c>
       <c r="D24">
-        <v>9.575426231624785</v>
+        <v>7.136717389180768</v>
       </c>
       <c r="E24">
-        <v>13.57129529439343</v>
+        <v>8.84205890204335</v>
       </c>
       <c r="F24">
-        <v>30.23454145912108</v>
+        <v>21.84982486668601</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>20.03380765060982</v>
+        <v>10.63836039715015</v>
       </c>
       <c r="J24">
-        <v>9.814470690172163</v>
+        <v>5.426667291972709</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.38880326749969</v>
+        <v>18.29638433517619</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.41952721981622</v>
+        <v>14.69556130844941</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.78415811793451</v>
+        <v>22.9909872354838</v>
       </c>
       <c r="C25">
-        <v>9.780953717132737</v>
+        <v>16.74522799558574</v>
       </c>
       <c r="D25">
-        <v>9.529390753914813</v>
+        <v>6.764177629799367</v>
       </c>
       <c r="E25">
-        <v>13.59848840861686</v>
+        <v>8.626337451649086</v>
       </c>
       <c r="F25">
-        <v>30.35581501023125</v>
+        <v>21.098868329082</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>20.2858250569555</v>
+        <v>11.20759615723279</v>
       </c>
       <c r="J25">
-        <v>9.866277451939652</v>
+        <v>5.518447378584823</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.98134152761174</v>
+        <v>16.60934177156421</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.57573033383662</v>
+        <v>14.47945487960454</v>
       </c>
     </row>
   </sheetData>
